--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03637433333333333</v>
+        <v>0.008007</v>
       </c>
       <c r="H2">
-        <v>0.109123</v>
+        <v>0.024021</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2138683333333334</v>
+        <v>0.8562376666666668</v>
       </c>
       <c r="N2">
-        <v>0.6416050000000001</v>
+        <v>2.568713</v>
       </c>
       <c r="O2">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923185</v>
       </c>
       <c r="P2">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923182</v>
       </c>
       <c r="Q2">
-        <v>0.007779318046111112</v>
+        <v>0.006855894997000001</v>
       </c>
       <c r="R2">
-        <v>0.070013862415</v>
+        <v>0.06170305497300001</v>
       </c>
       <c r="S2">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923185</v>
       </c>
       <c r="T2">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03637433333333333</v>
+        <v>0.008007</v>
       </c>
       <c r="H3">
-        <v>0.109123</v>
+        <v>0.024021</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>11.628537</v>
       </c>
       <c r="O3">
-        <v>0.4827046100021922</v>
+        <v>0.448651387965602</v>
       </c>
       <c r="P3">
-        <v>0.4827046100021921</v>
+        <v>0.4486513879656019</v>
       </c>
       <c r="Q3">
-        <v>0.1409934270056667</v>
+        <v>0.031036565253</v>
       </c>
       <c r="R3">
-        <v>1.268940843051</v>
+        <v>0.279329087277</v>
       </c>
       <c r="S3">
-        <v>0.4827046100021922</v>
+        <v>0.448651387965602</v>
       </c>
       <c r="T3">
-        <v>0.4827046100021921</v>
+        <v>0.4486513879656019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.008007</v>
+      </c>
+      <c r="H4">
+        <v>0.024021</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.03637433333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.109123</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02104366666666667</v>
+        <v>0.0338</v>
       </c>
       <c r="N4">
-        <v>0.06313099999999999</v>
+        <v>0.1014</v>
       </c>
       <c r="O4">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383465</v>
       </c>
       <c r="P4">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383464</v>
       </c>
       <c r="Q4">
-        <v>0.0007654493458888889</v>
+        <v>0.0002706366</v>
       </c>
       <c r="R4">
-        <v>0.006889044112999999</v>
+        <v>0.0024357294</v>
       </c>
       <c r="S4">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383465</v>
       </c>
       <c r="T4">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383464</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.03637433333333333</v>
+        <v>0.008007</v>
       </c>
       <c r="H5">
-        <v>0.109123</v>
+        <v>0.024021</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.628977</v>
+        <v>3.841810666666666</v>
       </c>
       <c r="N5">
-        <v>10.886931</v>
+        <v>11.525432</v>
       </c>
       <c r="O5">
-        <v>0.4519202873479077</v>
+        <v>0.4446733981844117</v>
       </c>
       <c r="P5">
-        <v>0.4519202873479076</v>
+        <v>0.4446733981844115</v>
       </c>
       <c r="Q5">
-        <v>0.132001619057</v>
+        <v>0.030761378008</v>
       </c>
       <c r="R5">
-        <v>1.188014571513</v>
+        <v>0.276852402072</v>
       </c>
       <c r="S5">
-        <v>0.4519202873479077</v>
+        <v>0.4446733981844117</v>
       </c>
       <c r="T5">
-        <v>0.4519202873479076</v>
+        <v>0.4446733981844115</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.03637433333333333</v>
+        <v>0.008007</v>
       </c>
       <c r="H6">
-        <v>0.109123</v>
+        <v>0.024021</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.05256933333333333</v>
+        <v>0.01560133333333333</v>
       </c>
       <c r="N6">
-        <v>0.157708</v>
+        <v>0.046804</v>
       </c>
       <c r="O6">
-        <v>0.006546513859329486</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="P6">
-        <v>0.006546513859329485</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="Q6">
-        <v>0.001912174453777778</v>
+        <v>0.000124919876</v>
       </c>
       <c r="R6">
-        <v>0.017209570084</v>
+        <v>0.001124278884</v>
       </c>
       <c r="S6">
-        <v>0.006546513859329486</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="T6">
-        <v>0.006546513859329485</v>
+        <v>0.001805788601123429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.03637433333333333</v>
+        <v>0.008007</v>
       </c>
       <c r="H7">
-        <v>0.109123</v>
+        <v>0.024021</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.237489</v>
+        <v>0.01599466666666667</v>
       </c>
       <c r="N7">
-        <v>0.712467</v>
+        <v>0.047984</v>
       </c>
       <c r="O7">
-        <v>0.02957475264295344</v>
+        <v>0.001851315277247813</v>
       </c>
       <c r="P7">
-        <v>0.02957475264295343</v>
+        <v>0.001851315277247812</v>
       </c>
       <c r="Q7">
-        <v>0.008638504049</v>
+        <v>0.000128069296</v>
       </c>
       <c r="R7">
-        <v>0.07774653644099999</v>
+        <v>0.001152623664</v>
       </c>
       <c r="S7">
-        <v>0.02957475264295344</v>
+        <v>0.001851315277247813</v>
       </c>
       <c r="T7">
-        <v>0.02957475264295343</v>
+        <v>0.001851315277247812</v>
       </c>
     </row>
   </sheetData>
